--- a/Assets/100_Data/CSVData/XlsxFiles/Facility_Data.xlsx
+++ b/Assets/100_Data/CSVData/XlsxFiles/Facility_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Drill_Game\Assets\100_Data\CSVData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Drill_Game\Assets\100_Data\CSVData\XlsxFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,26 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>iron-1</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>0,0</t>
   </si>
   <si>
-    <t>gold-1</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>gold-2</t>
-  </si>
-  <si>
     <t>0,0;0,1</t>
   </si>
   <si>
@@ -46,16 +31,94 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>Level</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coordinate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Name</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Level</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coordinate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>InputItemId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutputItemId</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_miner</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>copper_miner</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 채굴 시설 Lv.1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 채굴 시설 Lv.1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miner</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miner</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_miner</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 채굴 시설 Lv.1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_processor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 가공 시설 Lv.1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 채굴 시설 Lv.2</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>돌 채굴 시설 Lv.3</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>돌 가공 시설 Lv.2</t>
+  </si>
+  <si>
+    <t>돌 가공 시설 Lv.3</t>
   </si>
 </sst>
 </file>
@@ -711,12 +774,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Id"/>
-    <tableColumn id="2" name="Name"/>
+    <tableColumn id="5" name="Name"/>
+    <tableColumn id="2" name="DisplayName"/>
+    <tableColumn id="8" name="Type"/>
     <tableColumn id="3" name="Level"/>
+    <tableColumn id="7" name="InputItemId"/>
+    <tableColumn id="6" name="OutputItemId"/>
     <tableColumn id="4" name="Coordinate"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -986,78 +1053,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>101011</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>101012</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>101013</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>101021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>101022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>101023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>102011</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>103011</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="H9" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>